--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lama1</t>
   </si>
   <si>
     <t>Itgb1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.583377986984735</v>
+        <v>0.027949</v>
       </c>
       <c r="H2">
-        <v>0.583377986984735</v>
+        <v>0.083847</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>94.57053117973336</v>
+        <v>4.575586278081333</v>
       </c>
       <c r="R2">
-        <v>94.57053117973336</v>
+        <v>41.180276502732</v>
       </c>
       <c r="S2">
-        <v>0.2751136348397736</v>
+        <v>0.01187791661577544</v>
       </c>
       <c r="T2">
-        <v>0.2751136348397736</v>
+        <v>0.01187791661577544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.583377986984735</v>
+        <v>0.027949</v>
       </c>
       <c r="H3">
-        <v>0.583377986984735</v>
+        <v>0.083847</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>100.6648040891669</v>
+        <v>4.822837432653</v>
       </c>
       <c r="R3">
-        <v>100.6648040891669</v>
+        <v>43.405536893877</v>
       </c>
       <c r="S3">
-        <v>0.2928423876648305</v>
+        <v>0.01251976411217714</v>
       </c>
       <c r="T3">
-        <v>0.2928423876648305</v>
+        <v>0.01251976411217714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.583377986984735</v>
+        <v>0.027949</v>
       </c>
       <c r="H4">
-        <v>0.583377986984735</v>
+        <v>0.083847</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>64.91117994743797</v>
+        <v>3.115982704952333</v>
       </c>
       <c r="R4">
-        <v>64.91117994743797</v>
+        <v>28.043844344571</v>
       </c>
       <c r="S4">
-        <v>0.188832085791491</v>
+        <v>0.008088883149886116</v>
       </c>
       <c r="T4">
-        <v>0.188832085791491</v>
+        <v>0.008088883149886117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.583377986984735</v>
+        <v>0.027949</v>
       </c>
       <c r="H5">
-        <v>0.583377986984735</v>
+        <v>0.083847</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>50.33073134600858</v>
+        <v>2.430388648234334</v>
       </c>
       <c r="R5">
-        <v>50.33073134600858</v>
+        <v>21.873497834109</v>
       </c>
       <c r="S5">
-        <v>0.1464163336296447</v>
+        <v>0.006309126733319892</v>
       </c>
       <c r="T5">
-        <v>0.1464163336296447</v>
+        <v>0.006309126733319892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.027949</v>
+      </c>
+      <c r="H6">
+        <v>0.083847</v>
+      </c>
+      <c r="I6">
+        <v>0.04312964200344741</v>
+      </c>
+      <c r="J6">
+        <v>0.04312964200344741</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N6">
+        <v>179.20309</v>
+      </c>
+      <c r="O6">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P6">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q6">
+        <v>1.669515720803333</v>
+      </c>
+      <c r="R6">
+        <v>15.02564148723</v>
+      </c>
+      <c r="S6">
+        <v>0.004333951392288822</v>
+      </c>
+      <c r="T6">
+        <v>0.004333951392288822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.585754</v>
+      </c>
+      <c r="H7">
+        <v>1.757262</v>
+      </c>
+      <c r="I7">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="J7">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N7">
+        <v>491.135956</v>
+      </c>
+      <c r="O7">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P7">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q7">
+        <v>95.89495025694133</v>
+      </c>
+      <c r="R7">
+        <v>863.054552312472</v>
+      </c>
+      <c r="S7">
+        <v>0.2489368911001083</v>
+      </c>
+      <c r="T7">
+        <v>0.2489368911001083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.585754</v>
+      </c>
+      <c r="H8">
+        <v>1.757262</v>
+      </c>
+      <c r="I8">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="J8">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>172.558497</v>
+      </c>
+      <c r="N8">
+        <v>517.675491</v>
+      </c>
+      <c r="O8">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P8">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q8">
+        <v>101.076829851738</v>
+      </c>
+      <c r="R8">
+        <v>909.691468665642</v>
+      </c>
+      <c r="S8">
+        <v>0.2623887047037177</v>
+      </c>
+      <c r="T8">
+        <v>0.2623887047037177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.585754</v>
+      </c>
+      <c r="H9">
+        <v>1.757262</v>
+      </c>
+      <c r="I9">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="J9">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N9">
+        <v>334.464493</v>
+      </c>
+      <c r="O9">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P9">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q9">
+        <v>65.30463821090733</v>
+      </c>
+      <c r="R9">
+        <v>587.7417438981661</v>
+      </c>
+      <c r="S9">
+        <v>0.1695264825424306</v>
+      </c>
+      <c r="T9">
+        <v>0.1695264825424306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.585754</v>
+      </c>
+      <c r="H10">
+        <v>1.757262</v>
+      </c>
+      <c r="I10">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="J10">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N10">
+        <v>260.873947</v>
+      </c>
+      <c r="O10">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P10">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q10">
+        <v>50.93598598367933</v>
+      </c>
+      <c r="R10">
+        <v>458.423873853114</v>
+      </c>
+      <c r="S10">
+        <v>0.1322264202851286</v>
+      </c>
+      <c r="T10">
+        <v>0.1322264202851286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.585754</v>
+      </c>
+      <c r="H11">
+        <v>1.757262</v>
+      </c>
+      <c r="I11">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="J11">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N11">
+        <v>179.20309</v>
+      </c>
+      <c r="O11">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P11">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q11">
+        <v>34.98964225995333</v>
+      </c>
+      <c r="R11">
+        <v>314.90678033958</v>
+      </c>
+      <c r="S11">
+        <v>0.09083077619373668</v>
+      </c>
+      <c r="T11">
+        <v>0.09083077619373668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.03432</v>
+      </c>
+      <c r="H12">
+        <v>0.10296</v>
+      </c>
+      <c r="I12">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="J12">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N12">
+        <v>491.135956</v>
+      </c>
+      <c r="O12">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P12">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q12">
+        <v>5.618595336639999</v>
+      </c>
+      <c r="R12">
+        <v>50.56735802975999</v>
+      </c>
+      <c r="S12">
+        <v>0.01458549852421958</v>
+      </c>
+      <c r="T12">
+        <v>0.01458549852421958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.03432</v>
+      </c>
+      <c r="H13">
+        <v>0.10296</v>
+      </c>
+      <c r="I13">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="J13">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>172.558497</v>
+      </c>
+      <c r="N13">
+        <v>517.675491</v>
+      </c>
+      <c r="O13">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P13">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q13">
+        <v>5.922207617039999</v>
+      </c>
+      <c r="R13">
+        <v>53.29986855335999</v>
+      </c>
+      <c r="S13">
+        <v>0.01537365574188412</v>
+      </c>
+      <c r="T13">
+        <v>0.01537365574188412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.03432</v>
+      </c>
+      <c r="H14">
+        <v>0.10296</v>
+      </c>
+      <c r="I14">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="J14">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N14">
+        <v>334.464493</v>
+      </c>
+      <c r="O14">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P14">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q14">
+        <v>3.82627379992</v>
+      </c>
+      <c r="R14">
+        <v>34.43646419928</v>
+      </c>
+      <c r="S14">
+        <v>0.009932751429535635</v>
+      </c>
+      <c r="T14">
+        <v>0.009932751429535636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.583377986984735</v>
-      </c>
-      <c r="H6">
-        <v>0.583377986984735</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N6">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O6">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P6">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q6">
-        <v>33.27355021227071</v>
-      </c>
-      <c r="R6">
-        <v>33.27355021227071</v>
-      </c>
-      <c r="S6">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="T6">
-        <v>0.09679555807426021</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.03432</v>
+      </c>
+      <c r="H15">
+        <v>0.10296</v>
+      </c>
+      <c r="I15">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="J15">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N15">
+        <v>260.873947</v>
+      </c>
+      <c r="O15">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P15">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q15">
+        <v>2.98439795368</v>
+      </c>
+      <c r="R15">
+        <v>26.85958158312</v>
+      </c>
+      <c r="S15">
+        <v>0.007747297917189834</v>
+      </c>
+      <c r="T15">
+        <v>0.007747297917189834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.03432</v>
+      </c>
+      <c r="H16">
+        <v>0.10296</v>
+      </c>
+      <c r="I16">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="J16">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N16">
+        <v>179.20309</v>
+      </c>
+      <c r="O16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q16">
+        <v>2.050083349599999</v>
+      </c>
+      <c r="R16">
+        <v>18.4507501464</v>
+      </c>
+      <c r="S16">
+        <v>0.005321879558601465</v>
+      </c>
+      <c r="T16">
+        <v>0.005321879558601465</v>
       </c>
     </row>
   </sheetData>
